--- a/4_example/case_study_4.3/4_additional_plots/axial_pres_drop_comparisons_2022_12_08_v1.xlsx
+++ b/4_example/case_study_4.3/4_additional_plots/axial_pres_drop_comparisons_2022_12_08_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_4.3\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00717D7-54FA-49B9-A8FB-3CCCE8AC5271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047283DE-26EE-459F-BF9B-DC546F176401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8291BFBF-762F-47B6-A669-67F94A011C43}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Simulation no.</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>[%]</t>
+  </si>
+  <si>
+    <t>number of adsorbers</t>
+  </si>
+  <si>
+    <t>CPU TIME per cycle per adsorber</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,13 +155,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438C6E16-2B29-4A1F-A18A-4B0E4A9E6347}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,18 +491,20 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,19 +518,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,13 +556,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -560,21 +582,28 @@
         <f>C4/B4</f>
         <v>28.904199999999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
+        <f>D4/F4</f>
+        <v>14.4521</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>391</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>285</v>
       </c>
-      <c r="G4" s="3">
-        <f>F4/(F4+E4)</f>
+      <c r="I4" s="3">
+        <f>H4/(H4+G4)</f>
         <v>0.42159763313609466</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -588,21 +617,28 @@
         <f t="shared" ref="D5:D8" si="0">C5/B5</f>
         <v>28.054199999999998</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E8" si="1">D5/F5</f>
+        <v>14.027099999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
         <v>391</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>285</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G8" si="1">F5/(F5+E5)</f>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5:I8" si="2">H5/(H5+G5)</f>
         <v>0.42159763313609466</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -616,21 +652,28 @@
         <f t="shared" si="0"/>
         <v>27.785399999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>13.8927</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
         <v>391</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>285</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
         <v>0.42159763313609466</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -644,21 +687,28 @@
         <f t="shared" si="0"/>
         <v>27.8094</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>13.9047</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
         <v>391</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>285</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
         <v>0.42159763313609466</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -672,36 +722,48 @@
         <f t="shared" si="0"/>
         <v>29.151066666666669</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>14.575533333333334</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
         <v>391</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>285</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
         <v>0.42159763313609466</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>AVERAGE(D4:D8)</f>
         <v>28.340853333333332</v>
       </c>
-      <c r="G9" s="3">
-        <f>AVERAGE(G4:G8)</f>
+      <c r="E9" s="5">
+        <f>AVERAGE(E4:E8)</f>
+        <v>14.170426666666666</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="I9" s="3">
+        <f>AVERAGE(I4:I8)</f>
         <v>0.42159763313609472</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,20 +776,22 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,20 +804,22 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -767,21 +833,28 @@
         <f>C13/B13</f>
         <v>17.576066666666669</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
+        <f>D13/F13</f>
+        <v>8.7880333333333347</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
         <v>93</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f>F13/(F13+E13)</f>
-        <v>0</v>
-      </c>
       <c r="H13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f>H13/(H13+G13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -792,24 +865,31 @@
         <v>250.64099999999999</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D17" si="2">C14/B14</f>
+        <f t="shared" ref="D14:D17" si="3">C14/B14</f>
         <v>16.709399999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:E17" si="4">D14/F14</f>
+        <v>8.3546999999999993</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
         <v>93</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" ref="G14:G17" si="3">F14/(F14+E14)</f>
-        <v>0</v>
-      </c>
       <c r="H14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14:I17" si="5">H14/(H14+G14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -820,24 +900,31 @@
         <v>245.25</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.350000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
+        <f t="shared" si="4"/>
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
         <v>93</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -848,24 +935,31 @@
         <v>248.73400000000001</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.582266666666666</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2911333333333328</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
         <v>93</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -876,30 +970,42 @@
         <v>249.81299999999999</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.654199999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3270999999999997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
         <v>93</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f>AVERAGE(D13:D17)</f>
         <v>16.774386666666665</v>
       </c>
-      <c r="G18" s="3">
-        <f>AVERAGE(G13:G17)</f>
+      <c r="E18" s="2">
+        <f>AVERAGE(E13:E17)</f>
+        <v>8.3871933333333324</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="I18" s="3">
+        <f>AVERAGE(I13:I17)</f>
         <v>0</v>
       </c>
     </row>
